--- a/DATA/DECEMBER 2024.xlsx
+++ b/DATA/DECEMBER 2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Ethney/Documents/GitHub/Capstone/DATA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AE520D8-54D9-9543-AB83-55CC5F6B1586}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{437CDF4E-48EA-D049-B483-E8D930F89BC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/DATA/DECEMBER 2024.xlsx
+++ b/DATA/DECEMBER 2024.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Ethney/Documents/GitHub/Capstone/DATA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{437CDF4E-48EA-D049-B483-E8D930F89BC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71D20202-8A05-ED48-809F-8C2032E8CB43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17140" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hourly Data" sheetId="1" r:id="rId1"/>
-    <sheet name="DEC1" sheetId="3" r:id="rId2"/>
-    <sheet name="Daily Data" sheetId="2" r:id="rId3"/>
+    <sheet name="DEC13" sheetId="4" r:id="rId2"/>
+    <sheet name="DEC1" sheetId="3" r:id="rId3"/>
+    <sheet name="Daily Data" sheetId="2" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Hourly Data'!$A$1:$N$745</definedName>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="17">
   <si>
     <t>date</t>
   </si>
@@ -446,8 +447,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:N745"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:N27"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection sqref="A1:N315"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -588,7 +589,7 @@
         <v>214.9920959472656</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>45627</v>
       </c>
@@ -626,7 +627,7 @@
         <v>217.87506103515619</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>45627.041666666657</v>
       </c>
@@ -664,7 +665,7 @@
         <v>217.87506103515619</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>45627.083333333343</v>
       </c>
@@ -702,7 +703,7 @@
         <v>217.87506103515619</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>45627.125</v>
       </c>
@@ -740,7 +741,7 @@
         <v>221.18583679199219</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>45627.166666666657</v>
       </c>
@@ -778,7 +779,7 @@
         <v>221.18583679199219</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>45627.208333333343</v>
       </c>
@@ -816,7 +817,7 @@
         <v>221.18583679199219</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>45627.25</v>
       </c>
@@ -854,7 +855,7 @@
         <v>221.18583679199219</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>45627.291666666657</v>
       </c>
@@ -892,7 +893,7 @@
         <v>217.87506103515619</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>45627.333333333343</v>
       </c>
@@ -930,7 +931,7 @@
         <v>217.87506103515619</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>45627.375</v>
       </c>
@@ -968,7 +969,7 @@
         <v>217.87506103515619</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>45627.416666666657</v>
       </c>
@@ -1006,7 +1007,7 @@
         <v>214.9920959472656</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>45627.458333333343</v>
       </c>
@@ -1044,7 +1045,7 @@
         <v>218.6598205566406</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>45627.5</v>
       </c>
@@ -1082,7 +1083,7 @@
         <v>218.6598205566406</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>45627.541666666657</v>
       </c>
@@ -1120,7 +1121,7 @@
         <v>212.47117614746091</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>45627.583333333343</v>
       </c>
@@ -1158,7 +1159,7 @@
         <v>212.47117614746091</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>45627.625</v>
       </c>
@@ -1196,7 +1197,7 @@
         <v>212.47117614746091</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>45627.666666666657</v>
       </c>
@@ -1234,7 +1235,7 @@
         <v>212.47117614746091</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>45627.708333333343</v>
       </c>
@@ -1272,7 +1273,7 @@
         <v>212.47117614746091</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>45627.75</v>
       </c>
@@ -1310,7 +1311,7 @@
         <v>210.96369934082031</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>45627.791666666657</v>
       </c>
@@ -1348,7 +1349,7 @@
         <v>210.96369934082031</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>45627.833333333343</v>
       </c>
@@ -1386,7 +1387,7 @@
         <v>213.6900939941406</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>45627.875</v>
       </c>
@@ -1424,7 +1425,7 @@
         <v>213.6900939941406</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>45627.916666666657</v>
       </c>
@@ -1462,7 +1463,7 @@
         <v>209.05450439453119</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>45627.958333333343</v>
       </c>
@@ -11532,7 +11533,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="292" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A292" s="2">
         <v>45639</v>
       </c>
@@ -11570,7 +11571,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="293" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A293" s="2">
         <v>45639.041666666657</v>
       </c>
@@ -11608,7 +11609,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="294" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A294" s="2">
         <v>45639.083333333343</v>
       </c>
@@ -11646,7 +11647,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="295" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A295" s="2">
         <v>45639.125</v>
       </c>
@@ -11684,7 +11685,7 @@
         <v>135.0000915527344</v>
       </c>
     </row>
-    <row r="296" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A296" s="2">
         <v>45639.166666666657</v>
       </c>
@@ -11722,7 +11723,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="297" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A297" s="2">
         <v>45639.208333333343</v>
       </c>
@@ -11760,7 +11761,7 @@
         <v>44.9998779296875</v>
       </c>
     </row>
-    <row r="298" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A298" s="2">
         <v>45639.25</v>
       </c>
@@ -11798,7 +11799,7 @@
         <v>44.9998779296875</v>
       </c>
     </row>
-    <row r="299" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A299" s="2">
         <v>45639.291666666657</v>
       </c>
@@ -11836,7 +11837,7 @@
         <v>26.56500244140625</v>
       </c>
     </row>
-    <row r="300" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A300" s="2">
         <v>45639.333333333343</v>
       </c>
@@ -11874,7 +11875,7 @@
         <v>18.43505859375</v>
       </c>
     </row>
-    <row r="301" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A301" s="2">
         <v>45639.375</v>
       </c>
@@ -11912,7 +11913,7 @@
         <v>18.43505859375</v>
       </c>
     </row>
-    <row r="302" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A302" s="2">
         <v>45639.416666666657</v>
       </c>
@@ -11950,7 +11951,7 @@
         <v>26.56500244140625</v>
       </c>
     </row>
-    <row r="303" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A303" s="2">
         <v>45639.458333333343</v>
       </c>
@@ -11988,7 +11989,7 @@
         <v>21.80145263671875</v>
       </c>
     </row>
-    <row r="304" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A304" s="2">
         <v>45639.5</v>
       </c>
@@ -12026,7 +12027,7 @@
         <v>26.56500244140625</v>
       </c>
     </row>
-    <row r="305" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A305" s="2">
         <v>45639.541666666657</v>
       </c>
@@ -12064,7 +12065,7 @@
         <v>29.74481201171875</v>
       </c>
     </row>
-    <row r="306" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A306" s="2">
         <v>45639.583333333343</v>
       </c>
@@ -12102,7 +12103,7 @@
         <v>35.53778076171875</v>
       </c>
     </row>
-    <row r="307" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A307" s="2">
         <v>45639.625</v>
       </c>
@@ -12140,7 +12141,7 @@
         <v>35.53778076171875</v>
       </c>
     </row>
-    <row r="308" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A308" s="2">
         <v>45639.666666666657</v>
       </c>
@@ -12178,7 +12179,7 @@
         <v>40.6011962890625</v>
       </c>
     </row>
-    <row r="309" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A309" s="2">
         <v>45639.708333333343</v>
       </c>
@@ -12216,7 +12217,7 @@
         <v>40.6011962890625</v>
       </c>
     </row>
-    <row r="310" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A310" s="2">
         <v>45639.75</v>
       </c>
@@ -12254,7 +12255,7 @@
         <v>40.6011962890625</v>
       </c>
     </row>
-    <row r="311" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A311" s="2">
         <v>45639.791666666657</v>
       </c>
@@ -12292,7 +12293,7 @@
         <v>40.6011962890625</v>
       </c>
     </row>
-    <row r="312" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A312" s="2">
         <v>45639.833333333343</v>
       </c>
@@ -12330,7 +12331,7 @@
         <v>40.6011962890625</v>
       </c>
     </row>
-    <row r="313" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A313" s="2">
         <v>45639.875</v>
       </c>
@@ -12368,7 +12369,7 @@
         <v>40.6011962890625</v>
       </c>
     </row>
-    <row r="314" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A314" s="2">
         <v>45639.916666666657</v>
       </c>
@@ -12406,7 +12407,7 @@
         <v>40.6011962890625</v>
       </c>
     </row>
-    <row r="315" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A315" s="2">
         <v>45639.958333333343</v>
       </c>
@@ -28788,7 +28789,7 @@
   <autoFilter ref="A1:N745" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="0">
       <filters>
-        <dateGroupItem year="2024" month="12" day="1" dateTimeGrouping="day"/>
+        <dateGroupItem year="2024" month="12" day="13" dateTimeGrouping="day"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -28797,10 +28798,984 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05C6D1DF-06B2-1247-85C7-FD780037CEAD}">
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
+        <v>45639</v>
+      </c>
+      <c r="B2">
+        <v>2.5199999809265141</v>
+      </c>
+      <c r="C2">
+        <v>200</v>
+      </c>
+      <c r="D2">
+        <v>9.8000001907348633</v>
+      </c>
+      <c r="E2">
+        <v>0.57999998331069946</v>
+      </c>
+      <c r="F2">
+        <v>245</v>
+      </c>
+      <c r="G2">
+        <v>3</v>
+      </c>
+      <c r="I2">
+        <v>2.440000057220459</v>
+      </c>
+      <c r="J2">
+        <v>198</v>
+      </c>
+      <c r="K2">
+        <v>8.5500001907348633</v>
+      </c>
+      <c r="M2">
+        <v>0.35999998450279241</v>
+      </c>
+      <c r="N2">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>45639.041666666657</v>
+      </c>
+      <c r="B3">
+        <v>2.5199999809265141</v>
+      </c>
+      <c r="C3">
+        <v>201</v>
+      </c>
+      <c r="D3">
+        <v>9.8000001907348633</v>
+      </c>
+      <c r="E3">
+        <v>0.62000000476837158</v>
+      </c>
+      <c r="F3">
+        <v>244</v>
+      </c>
+      <c r="G3">
+        <v>3.0499999523162842</v>
+      </c>
+      <c r="I3">
+        <v>2.440000057220459</v>
+      </c>
+      <c r="J3">
+        <v>198</v>
+      </c>
+      <c r="K3">
+        <v>8.5500001907348633</v>
+      </c>
+      <c r="M3">
+        <v>0.35999998450279241</v>
+      </c>
+      <c r="N3">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>45639.083333333343</v>
+      </c>
+      <c r="B4">
+        <v>2.5399999618530269</v>
+      </c>
+      <c r="C4">
+        <v>201</v>
+      </c>
+      <c r="D4">
+        <v>9.8000001907348633</v>
+      </c>
+      <c r="E4">
+        <v>0.68000000715255737</v>
+      </c>
+      <c r="F4">
+        <v>243</v>
+      </c>
+      <c r="G4">
+        <v>3.1500000953674321</v>
+      </c>
+      <c r="I4">
+        <v>2.4200000762939449</v>
+      </c>
+      <c r="J4">
+        <v>198</v>
+      </c>
+      <c r="K4">
+        <v>8.6000003814697266</v>
+      </c>
+      <c r="M4">
+        <v>0.17999999225139621</v>
+      </c>
+      <c r="N4">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>45639.125</v>
+      </c>
+      <c r="B5">
+        <v>2.5399999618530269</v>
+      </c>
+      <c r="C5">
+        <v>202</v>
+      </c>
+      <c r="D5">
+        <v>9.8000001907348633</v>
+      </c>
+      <c r="E5">
+        <v>0.72000002861022949</v>
+      </c>
+      <c r="F5">
+        <v>242</v>
+      </c>
+      <c r="G5">
+        <v>3.25</v>
+      </c>
+      <c r="I5">
+        <v>2.4200000762939449</v>
+      </c>
+      <c r="J5">
+        <v>198</v>
+      </c>
+      <c r="K5">
+        <v>8.6000003814697266</v>
+      </c>
+      <c r="M5">
+        <v>0.25455844402313232</v>
+      </c>
+      <c r="N5">
+        <v>135.0000915527344</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>45639.166666666657</v>
+      </c>
+      <c r="B6">
+        <v>2.5799999237060551</v>
+      </c>
+      <c r="C6">
+        <v>202</v>
+      </c>
+      <c r="D6">
+        <v>9.8000001907348633</v>
+      </c>
+      <c r="E6">
+        <v>0.75999999046325684</v>
+      </c>
+      <c r="F6">
+        <v>240</v>
+      </c>
+      <c r="G6">
+        <v>3.2999999523162842</v>
+      </c>
+      <c r="I6">
+        <v>2.4200000762939449</v>
+      </c>
+      <c r="J6">
+        <v>199</v>
+      </c>
+      <c r="K6">
+        <v>8.5</v>
+      </c>
+      <c r="M6">
+        <v>0.17999999225139621</v>
+      </c>
+      <c r="N6">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>45639.208333333343</v>
+      </c>
+      <c r="B7">
+        <v>2.619999885559082</v>
+      </c>
+      <c r="C7">
+        <v>203</v>
+      </c>
+      <c r="D7">
+        <v>9.75</v>
+      </c>
+      <c r="E7">
+        <v>0.81999999284744263</v>
+      </c>
+      <c r="F7">
+        <v>239</v>
+      </c>
+      <c r="G7">
+        <v>3.3499999046325679</v>
+      </c>
+      <c r="I7">
+        <v>2.440000057220459</v>
+      </c>
+      <c r="J7">
+        <v>200</v>
+      </c>
+      <c r="K7">
+        <v>8.3500003814697266</v>
+      </c>
+      <c r="M7">
+        <v>0.25455844402313232</v>
+      </c>
+      <c r="N7">
+        <v>44.9998779296875</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>45639.25</v>
+      </c>
+      <c r="B8">
+        <v>2.660000085830688</v>
+      </c>
+      <c r="C8">
+        <v>203</v>
+      </c>
+      <c r="D8">
+        <v>9.6499996185302734</v>
+      </c>
+      <c r="E8">
+        <v>0.86000001430511475</v>
+      </c>
+      <c r="F8">
+        <v>237</v>
+      </c>
+      <c r="G8">
+        <v>3.5999999046325679</v>
+      </c>
+      <c r="I8">
+        <v>2.440000057220459</v>
+      </c>
+      <c r="J8">
+        <v>201</v>
+      </c>
+      <c r="K8">
+        <v>8.3500003814697266</v>
+      </c>
+      <c r="M8">
+        <v>0.25455844402313232</v>
+      </c>
+      <c r="N8">
+        <v>44.9998779296875</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <v>45639.291666666657</v>
+      </c>
+      <c r="B9">
+        <v>2.6800000667572021</v>
+      </c>
+      <c r="C9">
+        <v>206</v>
+      </c>
+      <c r="D9">
+        <v>9.3500003814697266</v>
+      </c>
+      <c r="E9">
+        <v>1.2599999904632571</v>
+      </c>
+      <c r="F9">
+        <v>233</v>
+      </c>
+      <c r="G9">
+        <v>4.1500000953674316</v>
+      </c>
+      <c r="I9">
+        <v>2.1400001049041748</v>
+      </c>
+      <c r="J9">
+        <v>196</v>
+      </c>
+      <c r="K9">
+        <v>8.6000003814697266</v>
+      </c>
+      <c r="M9">
+        <v>0.40249225497245789</v>
+      </c>
+      <c r="N9">
+        <v>26.56500244140625</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <v>45639.333333333343</v>
+      </c>
+      <c r="B10">
+        <v>2.720000028610229</v>
+      </c>
+      <c r="C10">
+        <v>208</v>
+      </c>
+      <c r="D10">
+        <v>8.9499998092651367</v>
+      </c>
+      <c r="E10">
+        <v>1.679999947547913</v>
+      </c>
+      <c r="F10">
+        <v>228</v>
+      </c>
+      <c r="G10">
+        <v>4.9000000953674316</v>
+      </c>
+      <c r="I10">
+        <v>1.860000014305115</v>
+      </c>
+      <c r="J10">
+        <v>190</v>
+      </c>
+      <c r="K10">
+        <v>9</v>
+      </c>
+      <c r="M10">
+        <v>0.56920993328094482</v>
+      </c>
+      <c r="N10">
+        <v>18.43505859375</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <v>45639.375</v>
+      </c>
+      <c r="B11">
+        <v>2.7400000095367432</v>
+      </c>
+      <c r="C11">
+        <v>211</v>
+      </c>
+      <c r="D11">
+        <v>8.6499996185302734</v>
+      </c>
+      <c r="E11">
+        <v>2.0799999237060551</v>
+      </c>
+      <c r="F11">
+        <v>224</v>
+      </c>
+      <c r="G11">
+        <v>5.5999999046325684</v>
+      </c>
+      <c r="I11">
+        <v>1.559999942779541</v>
+      </c>
+      <c r="J11">
+        <v>185</v>
+      </c>
+      <c r="K11">
+        <v>9.25</v>
+      </c>
+      <c r="M11">
+        <v>0.56920993328094482</v>
+      </c>
+      <c r="N11">
+        <v>18.43505859375</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
+        <v>45639.416666666657</v>
+      </c>
+      <c r="B12">
+        <v>3.1400001049041748</v>
+      </c>
+      <c r="C12">
+        <v>212</v>
+      </c>
+      <c r="D12">
+        <v>8.4499998092651367</v>
+      </c>
+      <c r="E12">
+        <v>2.6800000667572021</v>
+      </c>
+      <c r="F12">
+        <v>221</v>
+      </c>
+      <c r="G12">
+        <v>6.1999998092651367</v>
+      </c>
+      <c r="I12">
+        <v>1.2599999904632571</v>
+      </c>
+      <c r="J12">
+        <v>174</v>
+      </c>
+      <c r="K12">
+        <v>9.0500001907348633</v>
+      </c>
+      <c r="M12">
+        <v>0.80498450994491577</v>
+      </c>
+      <c r="N12">
+        <v>26.56500244140625</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
+        <v>45639.458333333343</v>
+      </c>
+      <c r="B13">
+        <v>3.559999942779541</v>
+      </c>
+      <c r="C13">
+        <v>212</v>
+      </c>
+      <c r="D13">
+        <v>8.3500003814697266</v>
+      </c>
+      <c r="E13">
+        <v>3.279999971389771</v>
+      </c>
+      <c r="F13">
+        <v>218</v>
+      </c>
+      <c r="G13">
+        <v>6.6999998092651367</v>
+      </c>
+      <c r="I13">
+        <v>0.93999999761581421</v>
+      </c>
+      <c r="J13">
+        <v>164</v>
+      </c>
+      <c r="K13">
+        <v>8.6999998092651367</v>
+      </c>
+      <c r="M13">
+        <v>0.9693295955657959</v>
+      </c>
+      <c r="N13">
+        <v>21.80145263671875</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
+        <v>45639.5</v>
+      </c>
+      <c r="B14">
+        <v>3.9600000381469731</v>
+      </c>
+      <c r="C14">
+        <v>213</v>
+      </c>
+      <c r="D14">
+        <v>8.4499998092651367</v>
+      </c>
+      <c r="E14">
+        <v>3.880000114440918</v>
+      </c>
+      <c r="F14">
+        <v>215</v>
+      </c>
+      <c r="G14">
+        <v>7.1500000953674316</v>
+      </c>
+      <c r="I14">
+        <v>0.63999998569488525</v>
+      </c>
+      <c r="J14">
+        <v>153</v>
+      </c>
+      <c r="K14">
+        <v>8.6000003814697266</v>
+      </c>
+      <c r="M14">
+        <v>1.207476735115051</v>
+      </c>
+      <c r="N14">
+        <v>26.56500244140625</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
+        <v>45639.541666666657</v>
+      </c>
+      <c r="B15">
+        <v>4.2399997711181641</v>
+      </c>
+      <c r="C15">
+        <v>214</v>
+      </c>
+      <c r="D15">
+        <v>8.8999996185302734</v>
+      </c>
+      <c r="E15">
+        <v>3.9800000190734859</v>
+      </c>
+      <c r="F15">
+        <v>217</v>
+      </c>
+      <c r="G15">
+        <v>7.5</v>
+      </c>
+      <c r="I15">
+        <v>1.0199999809265139</v>
+      </c>
+      <c r="J15">
+        <v>162</v>
+      </c>
+      <c r="K15">
+        <v>9.1999998092651367</v>
+      </c>
+      <c r="M15">
+        <v>1.45120632648468</v>
+      </c>
+      <c r="N15">
+        <v>29.74481201171875</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
+        <v>45639.583333333343</v>
+      </c>
+      <c r="B16">
+        <v>4.5199999809265137</v>
+      </c>
+      <c r="C16">
+        <v>215</v>
+      </c>
+      <c r="D16">
+        <v>9.5</v>
+      </c>
+      <c r="E16">
+        <v>4.059999942779541</v>
+      </c>
+      <c r="F16">
+        <v>220</v>
+      </c>
+      <c r="G16">
+        <v>7.75</v>
+      </c>
+      <c r="I16">
+        <v>1.379999995231628</v>
+      </c>
+      <c r="J16">
+        <v>172</v>
+      </c>
+      <c r="K16">
+        <v>10.05000019073486</v>
+      </c>
+      <c r="M16">
+        <v>1.548418521881104</v>
+      </c>
+      <c r="N16">
+        <v>35.53778076171875</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
+        <v>45639.625</v>
+      </c>
+      <c r="B17">
+        <v>4.8000001907348633</v>
+      </c>
+      <c r="C17">
+        <v>216</v>
+      </c>
+      <c r="D17">
+        <v>9.8999996185302734</v>
+      </c>
+      <c r="E17">
+        <v>4.1599998474121094</v>
+      </c>
+      <c r="F17">
+        <v>222</v>
+      </c>
+      <c r="G17">
+        <v>7.75</v>
+      </c>
+      <c r="I17">
+        <v>1.7599999904632571</v>
+      </c>
+      <c r="J17">
+        <v>181</v>
+      </c>
+      <c r="K17">
+        <v>10.60000038146973</v>
+      </c>
+      <c r="M17">
+        <v>1.548418521881104</v>
+      </c>
+      <c r="N17">
+        <v>35.53778076171875</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A18" s="2">
+        <v>45639.666666666657</v>
+      </c>
+      <c r="B18">
+        <v>4.5</v>
+      </c>
+      <c r="C18">
+        <v>215</v>
+      </c>
+      <c r="D18">
+        <v>9.8999996185302734</v>
+      </c>
+      <c r="E18">
+        <v>3.5999999046325679</v>
+      </c>
+      <c r="F18">
+        <v>224</v>
+      </c>
+      <c r="G18">
+        <v>7.4000000953674316</v>
+      </c>
+      <c r="I18">
+        <v>2.0999999046325679</v>
+      </c>
+      <c r="J18">
+        <v>188</v>
+      </c>
+      <c r="K18">
+        <v>10.44999980926514</v>
+      </c>
+      <c r="M18">
+        <v>1.6595180034637449</v>
+      </c>
+      <c r="N18">
+        <v>40.6011962890625</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A19" s="2">
+        <v>45639.708333333343</v>
+      </c>
+      <c r="B19">
+        <v>4.179999828338623</v>
+      </c>
+      <c r="C19">
+        <v>214</v>
+      </c>
+      <c r="D19">
+        <v>9.6999998092651367</v>
+      </c>
+      <c r="E19">
+        <v>3.0399999618530269</v>
+      </c>
+      <c r="F19">
+        <v>226</v>
+      </c>
+      <c r="G19">
+        <v>6.75</v>
+      </c>
+      <c r="I19">
+        <v>2.440000057220459</v>
+      </c>
+      <c r="J19">
+        <v>194</v>
+      </c>
+      <c r="K19">
+        <v>10</v>
+      </c>
+      <c r="M19">
+        <v>1.6595180034637449</v>
+      </c>
+      <c r="N19">
+        <v>40.6011962890625</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A20" s="2">
+        <v>45639.75</v>
+      </c>
+      <c r="B20">
+        <v>3.880000114440918</v>
+      </c>
+      <c r="C20">
+        <v>213</v>
+      </c>
+      <c r="D20">
+        <v>9.5500001907348633</v>
+      </c>
+      <c r="E20">
+        <v>2.4800000190734859</v>
+      </c>
+      <c r="F20">
+        <v>228</v>
+      </c>
+      <c r="G20">
+        <v>6.1500000953674316</v>
+      </c>
+      <c r="I20">
+        <v>2.779999971389771</v>
+      </c>
+      <c r="J20">
+        <v>201</v>
+      </c>
+      <c r="K20">
+        <v>9.5500001907348633</v>
+      </c>
+      <c r="M20">
+        <v>1.6595180034637449</v>
+      </c>
+      <c r="N20">
+        <v>40.6011962890625</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A21" s="2">
+        <v>45639.791666666657</v>
+      </c>
+      <c r="B21">
+        <v>3.7000000476837158</v>
+      </c>
+      <c r="C21">
+        <v>213</v>
+      </c>
+      <c r="D21">
+        <v>9.5500001907348633</v>
+      </c>
+      <c r="E21">
+        <v>2.119999885559082</v>
+      </c>
+      <c r="F21">
+        <v>232</v>
+      </c>
+      <c r="G21">
+        <v>5.5999999046325684</v>
+      </c>
+      <c r="I21">
+        <v>2.8599998950958252</v>
+      </c>
+      <c r="J21">
+        <v>203</v>
+      </c>
+      <c r="K21">
+        <v>9.25</v>
+      </c>
+      <c r="M21">
+        <v>1.6595180034637449</v>
+      </c>
+      <c r="N21">
+        <v>40.6011962890625</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A22" s="2">
+        <v>45639.833333333343</v>
+      </c>
+      <c r="B22">
+        <v>3.5399999618530269</v>
+      </c>
+      <c r="C22">
+        <v>212</v>
+      </c>
+      <c r="D22">
+        <v>9.5500001907348633</v>
+      </c>
+      <c r="E22">
+        <v>1.7599999904632571</v>
+      </c>
+      <c r="F22">
+        <v>236</v>
+      </c>
+      <c r="G22">
+        <v>5.0500001907348633</v>
+      </c>
+      <c r="I22">
+        <v>2.940000057220459</v>
+      </c>
+      <c r="J22">
+        <v>204</v>
+      </c>
+      <c r="K22">
+        <v>8.9499998092651367</v>
+      </c>
+      <c r="M22">
+        <v>1.6595180034637449</v>
+      </c>
+      <c r="N22">
+        <v>40.6011962890625</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A23" s="2">
+        <v>45639.875</v>
+      </c>
+      <c r="B23">
+        <v>3.3599998950958252</v>
+      </c>
+      <c r="C23">
+        <v>212</v>
+      </c>
+      <c r="D23">
+        <v>9.6000003814697266</v>
+      </c>
+      <c r="E23">
+        <v>1.3999999761581421</v>
+      </c>
+      <c r="F23">
+        <v>240</v>
+      </c>
+      <c r="G23">
+        <v>4.5500001907348633</v>
+      </c>
+      <c r="I23">
+        <v>3.0199999809265141</v>
+      </c>
+      <c r="J23">
+        <v>206</v>
+      </c>
+      <c r="K23">
+        <v>8.75</v>
+      </c>
+      <c r="M23">
+        <v>1.6595180034637449</v>
+      </c>
+      <c r="N23">
+        <v>40.6011962890625</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A24" s="2">
+        <v>45639.916666666657</v>
+      </c>
+      <c r="B24">
+        <v>3.2400000095367432</v>
+      </c>
+      <c r="C24">
+        <v>211</v>
+      </c>
+      <c r="D24">
+        <v>9.6499996185302734</v>
+      </c>
+      <c r="E24">
+        <v>1.179999947547913</v>
+      </c>
+      <c r="F24">
+        <v>245</v>
+      </c>
+      <c r="G24">
+        <v>4.0500001907348633</v>
+      </c>
+      <c r="I24">
+        <v>2.9800000190734859</v>
+      </c>
+      <c r="J24">
+        <v>206</v>
+      </c>
+      <c r="K24">
+        <v>8.6000003814697266</v>
+      </c>
+      <c r="M24">
+        <v>1.6595180034637449</v>
+      </c>
+      <c r="N24">
+        <v>40.6011962890625</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A25" s="2">
+        <v>45639.958333333343</v>
+      </c>
+      <c r="B25">
+        <v>3.119999885559082</v>
+      </c>
+      <c r="C25">
+        <v>211</v>
+      </c>
+      <c r="D25">
+        <v>9.6999998092651367</v>
+      </c>
+      <c r="E25">
+        <v>0.98000001907348633</v>
+      </c>
+      <c r="F25">
+        <v>251</v>
+      </c>
+      <c r="G25">
+        <v>3.6500000953674321</v>
+      </c>
+      <c r="I25">
+        <v>2.9200000762939449</v>
+      </c>
+      <c r="J25">
+        <v>207</v>
+      </c>
+      <c r="K25">
+        <v>8.5</v>
+      </c>
+      <c r="M25">
+        <v>1.799999952316284</v>
+      </c>
+      <c r="N25">
+        <v>36.8699951171875</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E17704F-DCA8-C447-BD82-FCBEBAE7A3C3}">
   <dimension ref="A1:N25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
@@ -29783,7 +30758,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D32"/>
   <sheetViews>
